--- a/PVB Stage Applicatie/App_Data/uploads/DocentInvoegen.xlsx
+++ b/PVB Stage Applicatie/App_Data/uploads/DocentInvoegen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Voornaam</t>
   </si>
@@ -50,30 +50,6 @@
   </si>
   <si>
     <t>Wachtwoord</t>
-  </si>
-  <si>
-    <t>Bulk</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>werktwel@hotmail.com</t>
-  </si>
-  <si>
-    <t>toch</t>
-  </si>
-  <si>
-    <t>7457ER</t>
-  </si>
-  <si>
-    <t>Enschede</t>
-  </si>
-  <si>
-    <t>BUT</t>
-  </si>
-  <si>
-    <t>but</t>
   </si>
 </sst>
 </file>
@@ -466,7 +442,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,38 +499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V21ieBGYvRQupL9plkBDTgAV3ZM4NERsWEcuN8YhtHvFqJJG6kmZu5tcGbM2xS10IGLrTB7sx89KCuYrut0Ecw==" saltValue="4SxHEUi9VJ9RUe96YJMwnw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>

--- a/PVB Stage Applicatie/App_Data/uploads/DocentInvoegen.xlsx
+++ b/PVB Stage Applicatie/App_Data/uploads/DocentInvoegen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>Voornaam</t>
   </si>
@@ -50,6 +50,249 @@
   </si>
   <si>
     <t>Wachtwoord</t>
+  </si>
+  <si>
+    <t>Gerard</t>
+  </si>
+  <si>
+    <t>Marcel</t>
+  </si>
+  <si>
+    <t>Pieter</t>
+  </si>
+  <si>
+    <t>Cees</t>
+  </si>
+  <si>
+    <t>Aad</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Merel</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Wargers</t>
+  </si>
+  <si>
+    <t>Roesink</t>
+  </si>
+  <si>
+    <t>Moens</t>
+  </si>
+  <si>
+    <t>Homans</t>
+  </si>
+  <si>
+    <t>Kaaden</t>
+  </si>
+  <si>
+    <t>Rogge</t>
+  </si>
+  <si>
+    <t>Vink</t>
+  </si>
+  <si>
+    <t>Hee</t>
+  </si>
+  <si>
+    <t>Kroos</t>
+  </si>
+  <si>
+    <t>van der</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Gwargers@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Mroesink@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Pmoens@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Chomans@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Akaaden@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Arogge@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Mvink@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Ahee@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Vkroos@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Karel</t>
+  </si>
+  <si>
+    <t>Bouter</t>
+  </si>
+  <si>
+    <t>Kbouter@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Enschedesestraat</t>
+  </si>
+  <si>
+    <t>Enktermorsweg</t>
+  </si>
+  <si>
+    <t>Hoge Linde</t>
+  </si>
+  <si>
+    <t>Lage Linde</t>
+  </si>
+  <si>
+    <t>Middelgrote Linde</t>
+  </si>
+  <si>
+    <t>Huisweg</t>
+  </si>
+  <si>
+    <t>Tornadolaan</t>
+  </si>
+  <si>
+    <t>De Mors</t>
+  </si>
+  <si>
+    <t>Kalaan</t>
+  </si>
+  <si>
+    <t>Slotsweg</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1348RY</t>
+  </si>
+  <si>
+    <t>9238OO</t>
+  </si>
+  <si>
+    <t>3848UU</t>
+  </si>
+  <si>
+    <t>6469BN</t>
+  </si>
+  <si>
+    <t>2309JG</t>
+  </si>
+  <si>
+    <t>6842UP</t>
+  </si>
+  <si>
+    <t>8701ER</t>
+  </si>
+  <si>
+    <t>2948II</t>
+  </si>
+  <si>
+    <t>2030PP</t>
+  </si>
+  <si>
+    <t>8239TT</t>
+  </si>
+  <si>
+    <t>Enschede</t>
+  </si>
+  <si>
+    <t>Denekamp</t>
+  </si>
+  <si>
+    <t>Ootmarsum</t>
+  </si>
+  <si>
+    <t>Oldenzaal</t>
+  </si>
+  <si>
+    <t>Neede</t>
+  </si>
+  <si>
+    <t>Losser</t>
+  </si>
+  <si>
+    <t>Hengelo</t>
+  </si>
+  <si>
+    <t>Almelo</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>RSK</t>
+  </si>
+  <si>
+    <t>MNS</t>
+  </si>
+  <si>
+    <t>HMN</t>
+  </si>
+  <si>
+    <t>KAD</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>ROG</t>
+  </si>
+  <si>
+    <t>VIK</t>
+  </si>
+  <si>
+    <t>HEE</t>
+  </si>
+  <si>
+    <t>KRO</t>
+  </si>
+  <si>
+    <t>gerard</t>
+  </si>
+  <si>
+    <t>marcel</t>
+  </si>
+  <si>
+    <t>pieter</t>
+  </si>
+  <si>
+    <t>cees</t>
+  </si>
+  <si>
+    <t>aad</t>
+  </si>
+  <si>
+    <t>karel</t>
+  </si>
+  <si>
+    <t>angela</t>
+  </si>
+  <si>
+    <t>merel</t>
+  </si>
+  <si>
+    <t>arnold</t>
+  </si>
+  <si>
+    <t>vincent</t>
   </si>
 </sst>
 </file>
@@ -125,14 +368,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -438,70 +682,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="7">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="7">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7">
+        <v>87</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V21ieBGYvRQupL9plkBDTgAV3ZM4NERsWEcuN8YhtHvFqJJG6kmZu5tcGbM2xS10IGLrTB7sx89KCuYrut0Ecw==" saltValue="4SxHEUi9VJ9RUe96YJMwnw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8tlHdAdRup0npg84K2xVYF6K2bbDPdSPmWHZnlY9e8alldNf0u3UStsyn2kW92qiHgNQMQ6LlTz8EPhLKndAZA==" saltValue="O8eRIYQ4MY8to2gOQ30EGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:L999" name="Range1"/>
   </protectedRanges>

--- a/PVB Stage Applicatie/App_Data/uploads/DocentInvoegen.xlsx
+++ b/PVB Stage Applicatie/App_Data/uploads/DocentInvoegen.xlsx
@@ -61,238 +61,238 @@
     <t>Pieter</t>
   </si>
   <si>
+    <t>Aad</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Merel</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Wargers</t>
+  </si>
+  <si>
+    <t>Roesink</t>
+  </si>
+  <si>
+    <t>Moens</t>
+  </si>
+  <si>
+    <t>Homans</t>
+  </si>
+  <si>
+    <t>Kaaden</t>
+  </si>
+  <si>
+    <t>Rogge</t>
+  </si>
+  <si>
+    <t>Vink</t>
+  </si>
+  <si>
+    <t>Hee</t>
+  </si>
+  <si>
+    <t>Kroos</t>
+  </si>
+  <si>
+    <t>van der</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Gwargers@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Mroesink@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Pmoens@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Chomans@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Akaaden@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Arogge@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Mvink@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Ahee@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Vkroos@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Karel</t>
+  </si>
+  <si>
+    <t>Bouter</t>
+  </si>
+  <si>
+    <t>Kbouter@rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Enschedesestraat</t>
+  </si>
+  <si>
+    <t>Enktermorsweg</t>
+  </si>
+  <si>
+    <t>Hoge Linde</t>
+  </si>
+  <si>
+    <t>Lage Linde</t>
+  </si>
+  <si>
+    <t>Middelgrote Linde</t>
+  </si>
+  <si>
+    <t>Huisweg</t>
+  </si>
+  <si>
+    <t>Tornadolaan</t>
+  </si>
+  <si>
+    <t>De Mors</t>
+  </si>
+  <si>
+    <t>Kalaan</t>
+  </si>
+  <si>
+    <t>Slotsweg</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1348RY</t>
+  </si>
+  <si>
+    <t>9238OO</t>
+  </si>
+  <si>
+    <t>3848UU</t>
+  </si>
+  <si>
+    <t>6469BN</t>
+  </si>
+  <si>
+    <t>2309JG</t>
+  </si>
+  <si>
+    <t>6842UP</t>
+  </si>
+  <si>
+    <t>8701ER</t>
+  </si>
+  <si>
+    <t>2948II</t>
+  </si>
+  <si>
+    <t>2030PP</t>
+  </si>
+  <si>
+    <t>8239TT</t>
+  </si>
+  <si>
+    <t>Enschede</t>
+  </si>
+  <si>
+    <t>Denekamp</t>
+  </si>
+  <si>
+    <t>Ootmarsum</t>
+  </si>
+  <si>
+    <t>Oldenzaal</t>
+  </si>
+  <si>
+    <t>Neede</t>
+  </si>
+  <si>
+    <t>Losser</t>
+  </si>
+  <si>
+    <t>Hengelo</t>
+  </si>
+  <si>
+    <t>Almelo</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>RSK</t>
+  </si>
+  <si>
+    <t>MNS</t>
+  </si>
+  <si>
+    <t>HMN</t>
+  </si>
+  <si>
+    <t>KAD</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>ROG</t>
+  </si>
+  <si>
+    <t>VIK</t>
+  </si>
+  <si>
+    <t>HEE</t>
+  </si>
+  <si>
+    <t>KRO</t>
+  </si>
+  <si>
+    <t>gerard</t>
+  </si>
+  <si>
+    <t>marcel</t>
+  </si>
+  <si>
+    <t>pieter</t>
+  </si>
+  <si>
+    <t>cees</t>
+  </si>
+  <si>
+    <t>aad</t>
+  </si>
+  <si>
+    <t>karel</t>
+  </si>
+  <si>
+    <t>angela</t>
+  </si>
+  <si>
+    <t>merel</t>
+  </si>
+  <si>
+    <t>arnold</t>
+  </si>
+  <si>
+    <t>vincent</t>
+  </si>
+  <si>
     <t>Cees</t>
-  </si>
-  <si>
-    <t>Aad</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Merel</t>
-  </si>
-  <si>
-    <t>Arnold</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Wargers</t>
-  </si>
-  <si>
-    <t>Roesink</t>
-  </si>
-  <si>
-    <t>Moens</t>
-  </si>
-  <si>
-    <t>Homans</t>
-  </si>
-  <si>
-    <t>Kaaden</t>
-  </si>
-  <si>
-    <t>Rogge</t>
-  </si>
-  <si>
-    <t>Vink</t>
-  </si>
-  <si>
-    <t>Hee</t>
-  </si>
-  <si>
-    <t>Kroos</t>
-  </si>
-  <si>
-    <t>van der</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>Gwargers@rocvantwente.nl</t>
-  </si>
-  <si>
-    <t>Mroesink@rocvantwente.nl</t>
-  </si>
-  <si>
-    <t>Pmoens@rocvantwente.nl</t>
-  </si>
-  <si>
-    <t>Chomans@rocvantwente.nl</t>
-  </si>
-  <si>
-    <t>Akaaden@rocvantwente.nl</t>
-  </si>
-  <si>
-    <t>Arogge@rocvantwente.nl</t>
-  </si>
-  <si>
-    <t>Mvink@rocvantwente.nl</t>
-  </si>
-  <si>
-    <t>Ahee@rocvantwente.nl</t>
-  </si>
-  <si>
-    <t>Vkroos@rocvantwente.nl</t>
-  </si>
-  <si>
-    <t>Karel</t>
-  </si>
-  <si>
-    <t>Bouter</t>
-  </si>
-  <si>
-    <t>Kbouter@rocvantwente.nl</t>
-  </si>
-  <si>
-    <t>Enschedesestraat</t>
-  </si>
-  <si>
-    <t>Enktermorsweg</t>
-  </si>
-  <si>
-    <t>Hoge Linde</t>
-  </si>
-  <si>
-    <t>Lage Linde</t>
-  </si>
-  <si>
-    <t>Middelgrote Linde</t>
-  </si>
-  <si>
-    <t>Huisweg</t>
-  </si>
-  <si>
-    <t>Tornadolaan</t>
-  </si>
-  <si>
-    <t>De Mors</t>
-  </si>
-  <si>
-    <t>Kalaan</t>
-  </si>
-  <si>
-    <t>Slotsweg</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>1348RY</t>
-  </si>
-  <si>
-    <t>9238OO</t>
-  </si>
-  <si>
-    <t>3848UU</t>
-  </si>
-  <si>
-    <t>6469BN</t>
-  </si>
-  <si>
-    <t>2309JG</t>
-  </si>
-  <si>
-    <t>6842UP</t>
-  </si>
-  <si>
-    <t>8701ER</t>
-  </si>
-  <si>
-    <t>2948II</t>
-  </si>
-  <si>
-    <t>2030PP</t>
-  </si>
-  <si>
-    <t>8239TT</t>
-  </si>
-  <si>
-    <t>Enschede</t>
-  </si>
-  <si>
-    <t>Denekamp</t>
-  </si>
-  <si>
-    <t>Ootmarsum</t>
-  </si>
-  <si>
-    <t>Oldenzaal</t>
-  </si>
-  <si>
-    <t>Neede</t>
-  </si>
-  <si>
-    <t>Losser</t>
-  </si>
-  <si>
-    <t>Hengelo</t>
-  </si>
-  <si>
-    <t>Almelo</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>RSK</t>
-  </si>
-  <si>
-    <t>MNS</t>
-  </si>
-  <si>
-    <t>HMN</t>
-  </si>
-  <si>
-    <t>KAD</t>
-  </si>
-  <si>
-    <t>BOT</t>
-  </si>
-  <si>
-    <t>ROG</t>
-  </si>
-  <si>
-    <t>VIK</t>
-  </si>
-  <si>
-    <t>HEE</t>
-  </si>
-  <si>
-    <t>KRO</t>
-  </si>
-  <si>
-    <t>gerard</t>
-  </si>
-  <si>
-    <t>marcel</t>
-  </si>
-  <si>
-    <t>pieter</t>
-  </si>
-  <si>
-    <t>cees</t>
-  </si>
-  <si>
-    <t>aad</t>
-  </si>
-  <si>
-    <t>karel</t>
-  </si>
-  <si>
-    <t>angela</t>
-  </si>
-  <si>
-    <t>merel</t>
-  </si>
-  <si>
-    <t>arnold</t>
-  </si>
-  <si>
-    <t>vincent</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,31 +748,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="7">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -780,31 +780,31 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="7">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -812,267 +812,267 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="7">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7">
         <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="7">
         <v>87</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7">
         <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7">
         <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7">
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
